--- a/Project/Data/United States/Cleaned Dataset/Solar Generation in US from 2011 to 2021.xlsx
+++ b/Project/Data/United States/Cleaned Dataset/Solar Generation in US from 2011 to 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hewit\Desktop\COS30045\Assignment\Project\Data\United States\Cleaned Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E04E006-A419-42A2-B736-F145409009AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E3550-8405-487C-BE72-FE293AD9F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="3216" windowWidth="17280" windowHeight="8964" xr2:uid="{D6CD43C2-E91D-4AAD-AFD3-4309D6F5CCEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6CD43C2-E91D-4AAD-AFD3-4309D6F5CCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,10 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
